--- a/ISA/2.0/ISADefinition_v2.xlsx
+++ b/ISA/2.0/ISADefinition_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\localzpl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Documents\GitHub\RISCVCPU\ISA\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148ECA7-BCE3-4D96-B9B2-26DF472B8039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="450">
   <si>
     <t>序号</t>
   </si>
@@ -1307,11 +1306,233 @@
     <t>rs1≠0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>浮点寄存器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ft0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ft1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>64位</t>
+  </si>
+  <si>
+    <t>ft2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>ft3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>ft4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>ft5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>ft6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>ft7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>fs0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>fs1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f10</t>
+  </si>
+  <si>
+    <t>fa0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f11</t>
+  </si>
+  <si>
+    <t>fa1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>fa2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f13</t>
+  </si>
+  <si>
+    <t>fa3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f14</t>
+  </si>
+  <si>
+    <t>fa4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f15</t>
+  </si>
+  <si>
+    <t>fa5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f16</t>
+  </si>
+  <si>
+    <t>fa6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f17</t>
+  </si>
+  <si>
+    <t>fa7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f18</t>
+  </si>
+  <si>
+    <t>fs2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f19</t>
+  </si>
+  <si>
+    <t>fs3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20</t>
+  </si>
+  <si>
+    <t>fs4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f21</t>
+  </si>
+  <si>
+    <t>fs5</t>
+  </si>
+  <si>
+    <t>f22</t>
+  </si>
+  <si>
+    <t>fs6</t>
+  </si>
+  <si>
+    <t>f23</t>
+  </si>
+  <si>
+    <t>fs7</t>
+  </si>
+  <si>
+    <t>f24</t>
+  </si>
+  <si>
+    <t>fs8</t>
+  </si>
+  <si>
+    <t>f25</t>
+  </si>
+  <si>
+    <t>fs9</t>
+  </si>
+  <si>
+    <t>f26</t>
+  </si>
+  <si>
+    <t>fs10</t>
+  </si>
+  <si>
+    <t>f27</t>
+  </si>
+  <si>
+    <t>fs11</t>
+  </si>
+  <si>
+    <t>f28</t>
+  </si>
+  <si>
+    <t>ft8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f29</t>
+  </si>
+  <si>
+    <t>ft9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f30</t>
+  </si>
+  <si>
+    <t>ft10</t>
+  </si>
+  <si>
+    <t>f31</t>
+  </si>
+  <si>
+    <t>ft11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -1552,7 +1773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1621,6 +1842,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1697,12 +1921,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1710,6 +1928,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,25 +2213,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP68" sqref="AP68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" style="1"/>
-    <col min="5" max="5" width="21.15234375" style="4" customWidth="1"/>
-    <col min="6" max="37" width="6.69140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="47.4609375" style="4" customWidth="1"/>
-    <col min="39" max="39" width="91.69140625" style="4" customWidth="1"/>
-    <col min="40" max="16384" width="10.84375" style="4"/>
+    <col min="1" max="1" width="6.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="1"/>
+    <col min="5" max="5" width="21.1796875" style="4" customWidth="1"/>
+    <col min="6" max="37" width="6.7265625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="47.453125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="91.7265625" style="4" customWidth="1"/>
+    <col min="40" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1">
@@ -2126,57 +2353,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="16" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:43" ht="16.05" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32"/>
-      <c r="AO2" s="27" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33"/>
+      <c r="AO2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="30"/>
     </row>
     <row r="3" spans="1:43" s="2" customFormat="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2209,20 +2436,20 @@
       <c r="L3" s="5">
         <v>0</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
       <c r="W3" s="5">
         <v>0</v>
       </c>
@@ -2232,13 +2459,13 @@
       <c r="Y3" s="5">
         <v>1</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
       <c r="AE3" s="5">
         <v>0</v>
       </c>
@@ -2280,7 +2507,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
@@ -2311,20 +2538,20 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
       <c r="W4" s="5">
         <v>0</v>
       </c>
@@ -2334,13 +2561,13 @@
       <c r="Y4" s="5">
         <v>1</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
       <c r="AE4" s="5">
         <v>0</v>
       </c>
@@ -2382,7 +2609,7 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
@@ -2413,20 +2640,20 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="5">
         <v>1</v>
       </c>
@@ -2436,13 +2663,13 @@
       <c r="Y5" s="5">
         <v>1</v>
       </c>
-      <c r="Z5" s="26" t="s">
+      <c r="Z5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
       <c r="AE5" s="5">
         <v>0</v>
       </c>
@@ -2484,7 +2711,7 @@
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2515,20 +2742,20 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
       <c r="W6" s="5">
         <v>1</v>
       </c>
@@ -2538,13 +2765,13 @@
       <c r="Y6" s="5">
         <v>1</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
       <c r="AE6" s="5">
         <v>0</v>
       </c>
@@ -2586,7 +2813,7 @@
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
@@ -2617,20 +2844,20 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26" t="s">
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
       <c r="W7" s="5">
         <v>1</v>
       </c>
@@ -2640,13 +2867,13 @@
       <c r="Y7" s="5">
         <v>1</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
       <c r="AE7" s="5">
         <v>0</v>
       </c>
@@ -2688,7 +2915,7 @@
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2719,20 +2946,20 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="5">
         <v>1</v>
       </c>
@@ -2742,13 +2969,13 @@
       <c r="Y8" s="5">
         <v>1</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
       <c r="AE8" s="5">
         <v>0</v>
       </c>
@@ -2790,7 +3017,7 @@
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2823,20 +3050,20 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
       <c r="W9" s="5">
         <v>0</v>
       </c>
@@ -2846,13 +3073,13 @@
       <c r="Y9" s="5">
         <v>0</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="Z9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
       <c r="AE9" s="5">
         <v>0</v>
       </c>
@@ -2894,7 +3121,7 @@
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
@@ -2904,27 +3131,27 @@
       <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
@@ -2934,13 +3161,13 @@
       <c r="Y10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
       <c r="AE10" s="5">
         <v>0</v>
       </c>
@@ -2982,7 +3209,7 @@
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
@@ -3013,20 +3240,20 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="5">
         <v>0</v>
       </c>
@@ -3036,13 +3263,13 @@
       <c r="Y11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="26" t="s">
+      <c r="Z11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
       <c r="AE11" s="5">
         <v>0</v>
       </c>
@@ -3084,7 +3311,7 @@
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>73</v>
       </c>
@@ -3094,35 +3321,35 @@
       <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
       <c r="AE12" s="5">
         <v>0</v>
       </c>
@@ -3164,7 +3391,7 @@
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>81</v>
       </c>
@@ -3174,35 +3401,35 @@
       <c r="E13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
       <c r="AE13" s="5">
         <v>0</v>
       </c>
@@ -3244,7 +3471,7 @@
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -3277,20 +3504,20 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
       <c r="W14" s="5">
         <v>1</v>
       </c>
@@ -3300,13 +3527,13 @@
       <c r="Y14" s="5">
         <v>0</v>
       </c>
-      <c r="Z14" s="26" t="s">
+      <c r="Z14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
       <c r="AE14" s="5">
         <v>0</v>
       </c>
@@ -3348,7 +3575,7 @@
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5" t="s">
         <v>94</v>
       </c>
@@ -3358,27 +3585,27 @@
       <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
       <c r="W15" s="5">
         <v>1</v>
       </c>
@@ -3388,13 +3615,13 @@
       <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z15" s="26" t="s">
+      <c r="Z15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
       <c r="AE15" s="5">
         <v>0</v>
       </c>
@@ -3436,7 +3663,7 @@
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5" t="s">
         <v>100</v>
       </c>
@@ -3467,20 +3694,20 @@
       <c r="L16" s="5">
         <v>0</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
       <c r="W16" s="5">
         <v>1</v>
       </c>
@@ -3490,13 +3717,13 @@
       <c r="Y16" s="5">
         <v>0</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
       <c r="AE16" s="5">
         <v>0</v>
       </c>
@@ -3538,7 +3765,7 @@
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5" t="s">
         <v>106</v>
       </c>
@@ -3548,27 +3775,27 @@
       <c r="E17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
       <c r="W17" s="5">
         <v>1</v>
       </c>
@@ -3578,13 +3805,13 @@
       <c r="Y17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="26" t="s">
+      <c r="Z17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
       <c r="AE17" s="5">
         <v>0</v>
       </c>
@@ -3626,7 +3853,7 @@
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="5" t="s">
         <v>112</v>
       </c>
@@ -3657,20 +3884,20 @@
       <c r="L18" s="5">
         <v>0</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26" t="s">
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
       <c r="W18" s="5">
         <v>1</v>
       </c>
@@ -3680,13 +3907,13 @@
       <c r="Y18" s="5">
         <v>1</v>
       </c>
-      <c r="Z18" s="26" t="s">
+      <c r="Z18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
       <c r="AE18" s="5">
         <v>0</v>
       </c>
@@ -3728,7 +3955,7 @@
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5" t="s">
         <v>118</v>
       </c>
@@ -3738,27 +3965,27 @@
       <c r="E19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
       <c r="W19" s="5">
         <v>1</v>
       </c>
@@ -3768,13 +3995,13 @@
       <c r="Y19" s="5">
         <v>1</v>
       </c>
-      <c r="Z19" s="26" t="s">
+      <c r="Z19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
       <c r="AE19" s="5">
         <v>0</v>
       </c>
@@ -3816,7 +4043,7 @@
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3849,20 +4076,20 @@
       <c r="L20" s="5">
         <v>0</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
       <c r="W20" s="5">
         <v>0</v>
       </c>
@@ -3872,13 +4099,13 @@
       <c r="Y20" s="5">
         <v>0</v>
       </c>
-      <c r="Z20" s="26" t="s">
+      <c r="Z20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
       <c r="AE20" s="5">
         <v>0</v>
       </c>
@@ -3920,7 +4147,7 @@
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5" t="s">
         <v>131</v>
       </c>
@@ -3951,20 +4178,20 @@
       <c r="L21" s="5">
         <v>0</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26" t="s">
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
       <c r="W21" s="5">
         <v>0</v>
       </c>
@@ -3974,13 +4201,13 @@
       <c r="Y21" s="5">
         <v>1</v>
       </c>
-      <c r="Z21" s="26" t="s">
+      <c r="Z21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
       <c r="AE21" s="5">
         <v>0</v>
       </c>
@@ -4022,7 +4249,7 @@
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
         <v>137</v>
       </c>
@@ -4032,27 +4259,27 @@
       <c r="E22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
       <c r="W22" s="5">
         <v>0</v>
       </c>
@@ -4062,13 +4289,13 @@
       <c r="Y22" s="5">
         <v>1</v>
       </c>
-      <c r="Z22" s="26" t="s">
+      <c r="Z22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
       <c r="AE22" s="5">
         <v>0</v>
       </c>
@@ -4110,7 +4337,7 @@
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4122,29 +4349,29 @@
       <c r="E23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26" t="s">
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
       <c r="W23" s="5">
         <v>0</v>
       </c>
@@ -4154,13 +4381,13 @@
       <c r="Y23" s="5">
         <v>0</v>
       </c>
-      <c r="Z23" s="26" t="s">
+      <c r="Z23" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
       <c r="AE23" s="5">
         <v>1</v>
       </c>
@@ -4202,7 +4429,7 @@
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="5" t="s">
         <v>153</v>
       </c>
@@ -4212,29 +4439,29 @@
       <c r="E24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26" t="s">
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
       <c r="W24" s="5">
         <v>0</v>
       </c>
@@ -4244,13 +4471,13 @@
       <c r="Y24" s="5">
         <v>1</v>
       </c>
-      <c r="Z24" s="26" t="s">
+      <c r="Z24" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
       <c r="AE24" s="5">
         <v>1</v>
       </c>
@@ -4292,7 +4519,7 @@
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="5" t="s">
         <v>159</v>
       </c>
@@ -4302,29 +4529,29 @@
       <c r="E25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26" t="s">
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
       <c r="W25" s="5">
         <v>1</v>
       </c>
@@ -4334,13 +4561,13 @@
       <c r="Y25" s="5">
         <v>0</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
       <c r="AE25" s="5">
         <v>1</v>
       </c>
@@ -4382,7 +4609,7 @@
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>165</v>
       </c>
@@ -4392,29 +4619,29 @@
       <c r="E26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26" t="s">
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
       <c r="W26" s="5">
         <v>1</v>
       </c>
@@ -4424,13 +4651,13 @@
       <c r="Y26" s="5">
         <v>1</v>
       </c>
-      <c r="Z26" s="26" t="s">
+      <c r="Z26" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
       <c r="AE26" s="5">
         <v>1</v>
       </c>
@@ -4472,7 +4699,7 @@
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="5" t="s">
         <v>171</v>
       </c>
@@ -4482,29 +4709,29 @@
       <c r="E27" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26" t="s">
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26" t="s">
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
       <c r="W27" s="5">
         <v>1</v>
       </c>
@@ -4514,13 +4741,13 @@
       <c r="Y27" s="5">
         <v>0</v>
       </c>
-      <c r="Z27" s="26" t="s">
+      <c r="Z27" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
       <c r="AE27" s="5">
         <v>1</v>
       </c>
@@ -4562,7 +4789,7 @@
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>177</v>
       </c>
@@ -4572,29 +4799,29 @@
       <c r="E28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26" t="s">
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
       <c r="W28" s="5">
         <v>1</v>
       </c>
@@ -4604,13 +4831,13 @@
       <c r="Y28" s="5">
         <v>1</v>
       </c>
-      <c r="Z28" s="26" t="s">
+      <c r="Z28" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
       <c r="AE28" s="5">
         <v>1</v>
       </c>
@@ -4652,7 +4879,7 @@
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4664,35 +4891,35 @@
       <c r="E29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26" t="s">
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
       <c r="AE29" s="5">
         <v>1</v>
       </c>
@@ -4734,7 +4961,7 @@
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>192</v>
       </c>
@@ -4744,27 +4971,27 @@
       <c r="E30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
       <c r="W30" s="5">
         <v>0</v>
       </c>
@@ -4774,13 +5001,13 @@
       <c r="Y30" s="5">
         <v>0</v>
       </c>
-      <c r="Z30" s="26" t="s">
+      <c r="Z30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
       <c r="AE30" s="5">
         <v>1</v>
       </c>
@@ -4947,7 +5174,7 @@
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -4959,27 +5186,27 @@
       <c r="E32" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26" t="s">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
       <c r="W32" s="5">
         <v>0</v>
       </c>
@@ -4989,13 +5216,13 @@
       <c r="Y32" s="5">
         <v>0</v>
       </c>
-      <c r="Z32" s="26" t="s">
+      <c r="Z32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
       <c r="AE32" s="5">
         <v>0</v>
       </c>
@@ -5033,11 +5260,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="2" customFormat="1">
+    <row r="33" spans="1:43" s="2" customFormat="1">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="5" t="s">
         <v>215</v>
       </c>
@@ -5047,27 +5274,27 @@
       <c r="E33" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26" t="s">
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
       <c r="W33" s="5">
         <v>0</v>
       </c>
@@ -5077,13 +5304,13 @@
       <c r="Y33" s="5">
         <v>1</v>
       </c>
-      <c r="Z33" s="26" t="s">
+      <c r="Z33" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
       <c r="AE33" s="5">
         <v>0</v>
       </c>
@@ -5111,12 +5338,17 @@
       <c r="AM33" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="AO33" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="30"/>
     </row>
-    <row r="34" spans="1:39" s="2" customFormat="1">
+    <row r="34" spans="1:43" s="2" customFormat="1">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="5" t="s">
         <v>219</v>
       </c>
@@ -5126,27 +5358,27 @@
       <c r="E34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33" t="s">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
       <c r="W34" s="8">
         <v>1</v>
       </c>
@@ -5156,13 +5388,13 @@
       <c r="Y34" s="8">
         <v>0</v>
       </c>
-      <c r="Z34" s="33" t="s">
+      <c r="Z34" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
       <c r="AE34" s="8">
         <v>0</v>
       </c>
@@ -5190,12 +5422,21 @@
       <c r="AM34" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="AO34" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AP34" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ34" s="23" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" s="2" customFormat="1">
+    <row r="35" spans="1:43" s="2" customFormat="1">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="5" t="s">
         <v>223</v>
       </c>
@@ -5205,27 +5446,27 @@
       <c r="E35" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33" t="s">
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
       <c r="W35" s="8">
         <v>1</v>
       </c>
@@ -5235,13 +5476,13 @@
       <c r="Y35" s="8">
         <v>1</v>
       </c>
-      <c r="Z35" s="33" t="s">
+      <c r="Z35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
       <c r="AE35" s="8">
         <v>0</v>
       </c>
@@ -5269,12 +5510,21 @@
       <c r="AM35" s="10" t="s">
         <v>226</v>
       </c>
+      <c r="AO35" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP35" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ35" s="23" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" s="2" customFormat="1">
+    <row r="36" spans="1:43" s="2" customFormat="1">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="5" t="s">
         <v>227</v>
       </c>
@@ -5284,27 +5534,27 @@
       <c r="E36" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33" t="s">
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
       <c r="W36" s="8">
         <v>0</v>
       </c>
@@ -5314,13 +5564,13 @@
       <c r="Y36" s="8">
         <v>0</v>
       </c>
-      <c r="Z36" s="33" t="s">
+      <c r="Z36" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
       <c r="AE36" s="8">
         <v>0</v>
       </c>
@@ -5348,12 +5598,21 @@
       <c r="AM36" s="10" t="s">
         <v>230</v>
       </c>
+      <c r="AO36" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP36" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ36" s="23" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" s="2" customFormat="1">
+    <row r="37" spans="1:43" s="2" customFormat="1">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>231</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -5365,29 +5624,29 @@
       <c r="E37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26" t="s">
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26" t="s">
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
       <c r="W37" s="5">
         <v>0</v>
       </c>
@@ -5397,13 +5656,13 @@
       <c r="Y37" s="5">
         <v>0</v>
       </c>
-      <c r="Z37" s="26" t="s">
+      <c r="Z37" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
       <c r="AE37" s="5">
         <v>0</v>
       </c>
@@ -5431,12 +5690,21 @@
       <c r="AM37" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="AO37" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP37" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ37" s="23" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" s="2" customFormat="1">
+    <row r="38" spans="1:43" s="2" customFormat="1">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="5" t="s">
         <v>239</v>
       </c>
@@ -5446,29 +5714,29 @@
       <c r="E38" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26" t="s">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26" t="s">
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
       <c r="W38" s="5">
         <v>0</v>
       </c>
@@ -5478,13 +5746,13 @@
       <c r="Y38" s="5">
         <v>1</v>
       </c>
-      <c r="Z38" s="26" t="s">
+      <c r="Z38" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
       <c r="AE38" s="5">
         <v>0</v>
       </c>
@@ -5512,12 +5780,21 @@
       <c r="AM38" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="AO38" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP38" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ38" s="23" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" s="2" customFormat="1">
+    <row r="39" spans="1:43" s="2" customFormat="1">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="26"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="5" t="s">
         <v>249</v>
       </c>
@@ -5527,29 +5804,29 @@
       <c r="E39" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33" t="s">
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33" t="s">
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
       <c r="W39" s="8">
         <v>0</v>
       </c>
@@ -5559,13 +5836,13 @@
       <c r="Y39" s="8">
         <v>0</v>
       </c>
-      <c r="Z39" s="33" t="s">
+      <c r="Z39" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
       <c r="AE39" s="8">
         <v>0</v>
       </c>
@@ -5593,12 +5870,21 @@
       <c r="AM39" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="AO39" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP39" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ39" s="23" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" s="2" customFormat="1">
+    <row r="40" spans="1:43" s="2" customFormat="1">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="41" t="s">
         <v>253</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -5610,27 +5896,27 @@
       <c r="E40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="26" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
       <c r="W40" s="8">
         <v>0</v>
       </c>
@@ -5640,13 +5926,13 @@
       <c r="Y40" s="8">
         <v>0</v>
       </c>
-      <c r="Z40" s="26" t="s">
+      <c r="Z40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
       <c r="AE40" s="8">
         <v>1</v>
       </c>
@@ -5671,12 +5957,21 @@
       <c r="AM40" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="AO40" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP40" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ40" s="23" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:43">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1" t="s">
         <v>295</v>
       </c>
@@ -5686,27 +5981,27 @@
       <c r="E41" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="38" t="s">
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="39"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="40"/>
       <c r="W41" s="14">
         <v>1</v>
       </c>
@@ -5716,13 +6011,13 @@
       <c r="Y41" s="16">
         <v>0</v>
       </c>
-      <c r="Z41" s="35" t="s">
+      <c r="Z41" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="39"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="40"/>
       <c r="AE41" s="14">
         <v>1</v>
       </c>
@@ -5747,53 +6042,71 @@
       <c r="AM41" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="AO41" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP41" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ41" s="54" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" s="3" customFormat="1">
-      <c r="A42" s="34" t="s">
+    <row r="42" spans="1:43" s="3" customFormat="1">
+      <c r="A42" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AO42" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="AP42" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ42" s="54" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" s="2" customFormat="1">
+    <row r="43" spans="1:43" s="2" customFormat="1">
       <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>259</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -5826,20 +6139,20 @@
       <c r="L43" s="5">
         <v>1</v>
       </c>
-      <c r="M43" s="33" t="s">
+      <c r="M43" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33" t="s">
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
       <c r="W43" s="8">
         <v>0</v>
       </c>
@@ -5849,13 +6162,13 @@
       <c r="Y43" s="8">
         <v>0</v>
       </c>
-      <c r="Z43" s="33" t="s">
+      <c r="Z43" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
       <c r="AE43" s="5">
         <v>0</v>
       </c>
@@ -5883,12 +6196,21 @@
       <c r="AM43" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="AO43" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="AP43" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ43" s="23" t="s">
+        <v>405</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" s="2" customFormat="1">
+    <row r="44" spans="1:43" s="2" customFormat="1">
       <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="26"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="5" t="s">
         <v>269</v>
       </c>
@@ -5919,20 +6241,20 @@
       <c r="L44" s="8">
         <v>1</v>
       </c>
-      <c r="M44" s="33" t="s">
+      <c r="M44" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33" t="s">
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
       <c r="W44" s="8">
         <v>0</v>
       </c>
@@ -5942,13 +6264,13 @@
       <c r="Y44" s="8">
         <v>1</v>
       </c>
-      <c r="Z44" s="33" t="s">
+      <c r="Z44" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
       <c r="AE44" s="8">
         <v>0</v>
       </c>
@@ -5976,12 +6298,21 @@
       <c r="AM44" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="AO44" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP44" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ44" s="23" t="s">
+        <v>407</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" s="2" customFormat="1">
+    <row r="45" spans="1:43" s="2" customFormat="1">
       <c r="A45" s="12">
         <v>42</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -6014,20 +6345,20 @@
       <c r="L45" s="8">
         <v>1</v>
       </c>
-      <c r="M45" s="33" t="s">
+      <c r="M45" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33" t="s">
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
       <c r="W45" s="8">
         <v>1</v>
       </c>
@@ -6037,13 +6368,13 @@
       <c r="Y45" s="8">
         <v>0</v>
       </c>
-      <c r="Z45" s="33" t="s">
+      <c r="Z45" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
       <c r="AE45" s="8">
         <v>0</v>
       </c>
@@ -6071,12 +6402,21 @@
       <c r="AM45" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="AO45" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="AP45" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ45" s="23" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" s="2" customFormat="1">
+    <row r="46" spans="1:43" s="2" customFormat="1">
       <c r="A46" s="12">
         <v>43</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="5" t="s">
         <v>282</v>
       </c>
@@ -6107,20 +6447,20 @@
       <c r="L46" s="8">
         <v>1</v>
       </c>
-      <c r="M46" s="33" t="s">
+      <c r="M46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33" t="s">
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
       <c r="W46" s="8">
         <v>1</v>
       </c>
@@ -6130,13 +6470,13 @@
       <c r="Y46" s="8">
         <v>1</v>
       </c>
-      <c r="Z46" s="33" t="s">
+      <c r="Z46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
       <c r="AE46" s="8">
         <v>0</v>
       </c>
@@ -6164,12 +6504,21 @@
       <c r="AM46" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="AO46" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP46" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ46" s="23" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" s="2" customFormat="1">
+    <row r="47" spans="1:43" s="2" customFormat="1">
       <c r="A47" s="12">
         <v>44</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
         <v>286</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -6202,20 +6551,20 @@
       <c r="L47" s="8">
         <v>1</v>
       </c>
-      <c r="M47" s="33" t="s">
+      <c r="M47" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33" t="s">
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
       <c r="W47" s="8">
         <v>1</v>
       </c>
@@ -6225,13 +6574,13 @@
       <c r="Y47" s="8">
         <v>0</v>
       </c>
-      <c r="Z47" s="33" t="s">
+      <c r="Z47" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
       <c r="AE47" s="8">
         <v>0</v>
       </c>
@@ -6259,12 +6608,21 @@
       <c r="AM47" s="10" t="s">
         <v>290</v>
       </c>
+      <c r="AO47" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP47" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ47" s="23" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" s="2" customFormat="1">
+    <row r="48" spans="1:43" s="2" customFormat="1">
       <c r="A48" s="12">
         <v>45</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="5" t="s">
         <v>291</v>
       </c>
@@ -6295,20 +6653,20 @@
       <c r="L48" s="8">
         <v>1</v>
       </c>
-      <c r="M48" s="33" t="s">
+      <c r="M48" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33" t="s">
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
       <c r="W48" s="8">
         <v>1</v>
       </c>
@@ -6318,13 +6676,13 @@
       <c r="Y48" s="8">
         <v>1</v>
       </c>
-      <c r="Z48" s="33" t="s">
+      <c r="Z48" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
       <c r="AE48" s="8">
         <v>0</v>
       </c>
@@ -6352,88 +6710,115 @@
       <c r="AM48" s="10" t="s">
         <v>294</v>
       </c>
+      <c r="AO48" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP48" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ48" s="23" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="49" spans="1:43" s="3" customFormat="1">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AO49" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP49" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ49" s="54" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="50" spans="1:43" s="2" customFormat="1">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="42"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="43"/>
+      <c r="AO50" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP50" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ50" s="23" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="51" spans="1:43" s="2" customFormat="1">
       <c r="A51" s="12">
@@ -6472,32 +6857,32 @@
       <c r="L51" s="12">
         <v>1</v>
       </c>
-      <c r="M51" s="33" t="s">
+      <c r="M51" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33" t="s">
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="43" t="s">
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="33" t="s">
+      <c r="X51" s="45"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
       <c r="AE51" s="12">
         <v>1</v>
       </c>
@@ -6524,6 +6909,15 @@
       </c>
       <c r="AM51" s="6" t="s">
         <v>268</v>
+      </c>
+      <c r="AO51" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP51" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ51" s="23" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:43" s="2" customFormat="1">
@@ -6563,32 +6957,32 @@
       <c r="L52" s="11">
         <v>0</v>
       </c>
-      <c r="M52" s="33" t="s">
+      <c r="M52" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33" t="s">
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="46" t="s">
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33" t="s">
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
       <c r="AE52" s="11">
         <v>1</v>
       </c>
@@ -6615,6 +7009,15 @@
       </c>
       <c r="AM52" s="6" t="s">
         <v>281</v>
+      </c>
+      <c r="AO52" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP52" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ52" s="23" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:43" s="2" customFormat="1">
@@ -6633,29 +7036,29 @@
       <c r="E53" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26" t="s">
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26" t="s">
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
       <c r="W53" s="12">
         <v>0</v>
       </c>
@@ -6665,13 +7068,13 @@
       <c r="Y53" s="12">
         <v>1</v>
       </c>
-      <c r="Z53" s="26" t="s">
+      <c r="Z53" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
       <c r="AE53" s="12">
         <v>0</v>
       </c>
@@ -6698,6 +7101,15 @@
       </c>
       <c r="AM53" s="6" t="s">
         <v>248</v>
+      </c>
+      <c r="AO53" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP53" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ53" s="23" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:43" s="2" customFormat="1">
@@ -6716,27 +7128,27 @@
       <c r="E54" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26" t="s">
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
       <c r="W54" s="12">
         <v>0</v>
       </c>
@@ -6746,13 +7158,13 @@
       <c r="Y54" s="12">
         <v>1</v>
       </c>
-      <c r="Z54" s="26" t="s">
+      <c r="Z54" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
       <c r="AE54" s="12">
         <v>0</v>
       </c>
@@ -6780,56 +7192,71 @@
       <c r="AM54" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AO54" s="12"/>
-      <c r="AP54" s="12"/>
-      <c r="AQ54" s="12"/>
+      <c r="AO54" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP54" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ54" s="23" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="55" spans="1:43" s="2" customFormat="1">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="42"/>
-      <c r="AB55" s="42"/>
-      <c r="AC55" s="42"/>
-      <c r="AD55" s="42"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="42"/>
-      <c r="AH55" s="42"/>
-      <c r="AI55" s="42"/>
-      <c r="AJ55" s="42"/>
-      <c r="AK55" s="42"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="43"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="43"/>
+      <c r="AJ55" s="43"/>
+      <c r="AK55" s="43"/>
+      <c r="AO55" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="AP55" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ55" s="23" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="56" spans="1:43" ht="15" customHeight="1">
       <c r="A56" s="18">
         <v>50</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="19" t="s">
@@ -6853,32 +7280,41 @@
       <c r="Y56" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="Z56" s="23" t="s">
+      <c r="Z56" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="25"/>
-      <c r="AE56" s="23" t="s">
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="24"/>
-      <c r="AI56" s="25"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="26"/>
       <c r="AJ56" s="17">
         <v>0</v>
       </c>
       <c r="AK56" s="17">
         <v>1</v>
       </c>
+      <c r="AO56" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="AP56" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ56" s="23" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="57" spans="1:43" ht="24.5" customHeight="1">
+    <row r="57" spans="1:43" ht="24.45" customHeight="1">
       <c r="A57" s="18">
         <v>51</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="19" t="s">
         <v>331</v>
       </c>
@@ -6900,32 +7336,41 @@
       <c r="Y57" s="17">
         <v>1</v>
       </c>
-      <c r="Z57" s="50" t="s">
+      <c r="Z57" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="51"/>
-      <c r="AC57" s="51"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="50" t="s">
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="51"/>
+      <c r="AE57" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="AF57" s="51"/>
-      <c r="AG57" s="51"/>
-      <c r="AH57" s="51"/>
-      <c r="AI57" s="52"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="51"/>
       <c r="AJ57" s="17">
         <v>1</v>
       </c>
       <c r="AK57" s="17">
         <v>0</v>
+      </c>
+      <c r="AO57" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AP57" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ57" s="23" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:43" ht="15" customHeight="1">
       <c r="A58" s="18">
         <v>52</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="19" t="s">
         <v>334</v>
       </c>
@@ -6953,30 +7398,39 @@
       <c r="AA58" s="22">
         <v>0</v>
       </c>
-      <c r="AB58" s="23" t="s">
+      <c r="AB58" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="25"/>
-      <c r="AE58" s="23" t="s">
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="24"/>
-      <c r="AH58" s="24"/>
-      <c r="AI58" s="25"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="26"/>
       <c r="AJ58" s="17">
         <v>0</v>
       </c>
       <c r="AK58" s="17">
         <v>1</v>
+      </c>
+      <c r="AO58" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="AP58" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ58" s="23" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="15" customHeight="1">
       <c r="A59" s="18">
         <v>53</v>
       </c>
-      <c r="B59" s="48"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="19" t="s">
         <v>336</v>
       </c>
@@ -7004,34 +7458,43 @@
       <c r="AA59" s="22">
         <v>1</v>
       </c>
-      <c r="AB59" s="23" t="s">
+      <c r="AB59" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="26"/>
       <c r="AE59" s="17">
         <v>1</v>
       </c>
       <c r="AF59" s="17">
         <v>0</v>
       </c>
-      <c r="AG59" s="23" t="s">
+      <c r="AG59" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AH59" s="24"/>
-      <c r="AI59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="26"/>
       <c r="AJ59" s="17">
         <v>0</v>
       </c>
       <c r="AK59" s="17">
         <v>1</v>
+      </c>
+      <c r="AO59" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP59" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ59" s="23" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:43" ht="15" customHeight="1">
       <c r="A60" s="18">
         <v>54</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="19" t="s">
         <v>338</v>
       </c>
@@ -7059,34 +7522,43 @@
       <c r="AA60" s="22">
         <v>1</v>
       </c>
-      <c r="AB60" s="23" t="s">
+      <c r="AB60" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="26"/>
       <c r="AE60" s="17">
         <v>1</v>
       </c>
       <c r="AF60" s="17">
         <v>1</v>
       </c>
-      <c r="AG60" s="23" t="s">
+      <c r="AG60" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="25"/>
+      <c r="AH60" s="25"/>
+      <c r="AI60" s="26"/>
       <c r="AJ60" s="17">
         <v>0</v>
       </c>
       <c r="AK60" s="17">
         <v>1</v>
+      </c>
+      <c r="AO60" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AP60" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ60" s="23" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="15" customHeight="1">
       <c r="A61" s="18">
         <v>55</v>
       </c>
-      <c r="B61" s="48"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="19" t="s">
         <v>340</v>
       </c>
@@ -7114,34 +7586,43 @@
       <c r="AA61" s="22">
         <v>1</v>
       </c>
-      <c r="AB61" s="23" t="s">
+      <c r="AB61" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="26"/>
       <c r="AE61" s="17">
         <v>0</v>
       </c>
       <c r="AF61" s="17">
         <v>0</v>
       </c>
-      <c r="AG61" s="23" t="s">
+      <c r="AG61" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AH61" s="24"/>
-      <c r="AI61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="26"/>
       <c r="AJ61" s="17">
         <v>0</v>
       </c>
       <c r="AK61" s="17">
         <v>1</v>
+      </c>
+      <c r="AO61" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP61" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ61" s="23" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:43" ht="15" customHeight="1">
       <c r="A62" s="18">
         <v>56</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="19" t="s">
         <v>342</v>
       </c>
@@ -7169,34 +7650,43 @@
       <c r="AA62" s="22">
         <v>1</v>
       </c>
-      <c r="AB62" s="23" t="s">
+      <c r="AB62" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="26"/>
       <c r="AE62" s="17">
         <v>0</v>
       </c>
       <c r="AF62" s="17">
         <v>1</v>
       </c>
-      <c r="AG62" s="23" t="s">
+      <c r="AG62" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="26"/>
       <c r="AJ62" s="17">
         <v>0</v>
       </c>
       <c r="AK62" s="17">
         <v>1</v>
+      </c>
+      <c r="AO62" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP62" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ62" s="54" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:43" ht="15" customHeight="1">
       <c r="A63" s="18">
         <v>57</v>
       </c>
-      <c r="B63" s="48"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="19" t="s">
         <v>344</v>
       </c>
@@ -7218,32 +7708,41 @@
       <c r="Y63" s="17">
         <v>1</v>
       </c>
-      <c r="Z63" s="23" t="s">
+      <c r="Z63" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="25"/>
-      <c r="AE63" s="23" t="s">
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="26"/>
       <c r="AJ63" s="17">
         <v>1</v>
       </c>
       <c r="AK63" s="17">
         <v>0</v>
+      </c>
+      <c r="AO63" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP63" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ63" s="54" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:43" ht="15" customHeight="1">
       <c r="A64" s="18">
         <v>58</v>
       </c>
-      <c r="B64" s="48"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="19" t="s">
         <v>346</v>
       </c>
@@ -7265,32 +7764,41 @@
       <c r="Y64" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="Z64" s="23" t="s">
+      <c r="Z64" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="25"/>
-      <c r="AE64" s="23" t="s">
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="26"/>
+      <c r="AE64" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="26"/>
       <c r="AJ64" s="17">
         <v>0</v>
       </c>
       <c r="AK64" s="17">
         <v>1</v>
       </c>
+      <c r="AO64" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP64" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ64" s="54" t="s">
+        <v>447</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1">
+    <row r="65" spans="1:43" ht="15" customHeight="1">
       <c r="A65" s="18">
         <v>59</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="19" t="s">
         <v>334</v>
       </c>
@@ -7312,32 +7820,41 @@
       <c r="Y65" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="Z65" s="23" t="s">
+      <c r="Z65" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="25"/>
-      <c r="AE65" s="23" t="s">
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="26"/>
+      <c r="AE65" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="25"/>
+      <c r="AF65" s="25"/>
+      <c r="AG65" s="25"/>
+      <c r="AH65" s="25"/>
+      <c r="AI65" s="26"/>
       <c r="AJ65" s="17">
         <v>0</v>
       </c>
       <c r="AK65" s="17">
         <v>1</v>
       </c>
+      <c r="AO65" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="AP65" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ65" s="54" t="s">
+        <v>449</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1">
+    <row r="66" spans="1:43" ht="15" customHeight="1">
       <c r="A66" s="18">
         <v>60</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -7361,20 +7878,20 @@
       <c r="Y66" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Z66" s="23" t="s">
+      <c r="Z66" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="25"/>
-      <c r="AE66" s="23" t="s">
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="26"/>
+      <c r="AE66" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="26"/>
       <c r="AJ66" s="17">
         <v>1</v>
       </c>
@@ -7382,11 +7899,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1">
+    <row r="67" spans="1:43" ht="15" customHeight="1">
       <c r="A67" s="18">
         <v>61</v>
       </c>
-      <c r="B67" s="49"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="19" t="s">
         <v>351</v>
       </c>
@@ -7414,18 +7931,18 @@
       <c r="AA67" s="22">
         <v>1</v>
       </c>
-      <c r="AB67" s="23" t="s">
+      <c r="AB67" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="25"/>
-      <c r="AE67" s="23" t="s">
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="26"/>
+      <c r="AE67" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="26"/>
       <c r="AJ67" s="17">
         <v>0</v>
       </c>
@@ -7433,11 +7950,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1">
+    <row r="68" spans="1:43" ht="15" customHeight="1">
       <c r="A68" s="18">
         <v>62</v>
       </c>
-      <c r="B68" s="49"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="19" t="s">
         <v>353</v>
       </c>
@@ -7465,18 +7982,18 @@
       <c r="AA68" s="22">
         <v>0</v>
       </c>
-      <c r="AB68" s="23" t="s">
+      <c r="AB68" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="25"/>
-      <c r="AE68" s="23" t="s">
+      <c r="AC68" s="25"/>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="24"/>
-      <c r="AI68" s="25"/>
+      <c r="AF68" s="25"/>
+      <c r="AG68" s="25"/>
+      <c r="AH68" s="25"/>
+      <c r="AI68" s="26"/>
       <c r="AJ68" s="17">
         <v>0</v>
       </c>
@@ -7484,11 +8001,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1">
+    <row r="69" spans="1:43" ht="15" customHeight="1">
       <c r="A69" s="18">
         <v>63</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="52" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="19" t="s">
@@ -7509,23 +8026,23 @@
       <c r="X69" s="17">
         <v>1</v>
       </c>
-      <c r="Y69" s="23" t="s">
+      <c r="Y69" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="23" t="s">
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="25"/>
-      <c r="AE69" s="23" t="s">
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="26"/>
+      <c r="AE69" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="26"/>
       <c r="AJ69" s="17">
         <v>0</v>
       </c>
@@ -7533,11 +8050,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1">
+    <row r="70" spans="1:43" ht="15" customHeight="1">
       <c r="A70" s="18">
         <v>64</v>
       </c>
-      <c r="B70" s="48"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="19" t="s">
         <v>358</v>
       </c>
@@ -7556,23 +8073,23 @@
       <c r="X70" s="17">
         <v>0</v>
       </c>
-      <c r="Y70" s="23" t="s">
+      <c r="Y70" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="23" t="s">
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="26"/>
+      <c r="AB70" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="25"/>
-      <c r="AE70" s="23" t="s">
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="26"/>
+      <c r="AE70" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="26"/>
       <c r="AJ70" s="17">
         <v>0</v>
       </c>
@@ -7580,11 +8097,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1">
+    <row r="71" spans="1:43" ht="15" customHeight="1">
       <c r="A71" s="18">
         <v>65</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="52" t="s">
         <v>360</v>
       </c>
       <c r="C71" s="19" t="s">
@@ -7605,19 +8122,19 @@
       <c r="X71" s="17">
         <v>1</v>
       </c>
-      <c r="Y71" s="23" t="s">
+      <c r="Y71" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="25"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="25"/>
+      <c r="AG71" s="25"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="26"/>
       <c r="AJ71" s="17">
         <v>0</v>
       </c>
@@ -7625,11 +8142,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1">
+    <row r="72" spans="1:43" ht="15" customHeight="1">
       <c r="A72" s="18">
         <v>66</v>
       </c>
-      <c r="B72" s="48"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="19" t="s">
         <v>364</v>
       </c>
@@ -7651,20 +8168,20 @@
       <c r="Y72" s="17">
         <v>0</v>
       </c>
-      <c r="Z72" s="23" t="s">
+      <c r="Z72" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="25"/>
-      <c r="AE72" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="25"/>
+      <c r="AA72" s="25"/>
+      <c r="AB72" s="25"/>
+      <c r="AC72" s="25"/>
+      <c r="AD72" s="26"/>
+      <c r="AE72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="25"/>
+      <c r="AG72" s="25"/>
+      <c r="AH72" s="25"/>
+      <c r="AI72" s="26"/>
       <c r="AJ72" s="17">
         <v>1</v>
       </c>
@@ -7672,11 +8189,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1">
+    <row r="73" spans="1:43" ht="15" customHeight="1">
       <c r="A73" s="18">
         <v>67</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -7697,19 +8214,19 @@
       <c r="X73" s="17">
         <v>1</v>
       </c>
-      <c r="Y73" s="23" t="s">
+      <c r="Y73" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="25"/>
+      <c r="Z73" s="25"/>
+      <c r="AA73" s="25"/>
+      <c r="AB73" s="25"/>
+      <c r="AC73" s="25"/>
+      <c r="AD73" s="25"/>
+      <c r="AE73" s="25"/>
+      <c r="AF73" s="25"/>
+      <c r="AG73" s="25"/>
+      <c r="AH73" s="25"/>
+      <c r="AI73" s="26"/>
       <c r="AJ73" s="17">
         <v>0</v>
       </c>
@@ -7717,11 +8234,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1">
+    <row r="74" spans="1:43" ht="15" customHeight="1">
       <c r="A74" s="18">
         <v>68</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="19" t="s">
         <v>368</v>
       </c>
@@ -7743,20 +8260,20 @@
       <c r="Y74" s="17">
         <v>1</v>
       </c>
-      <c r="Z74" s="23" t="s">
+      <c r="Z74" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="AA74" s="24"/>
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="25"/>
-      <c r="AE74" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="25"/>
+      <c r="AA74" s="25"/>
+      <c r="AB74" s="25"/>
+      <c r="AC74" s="25"/>
+      <c r="AD74" s="26"/>
+      <c r="AE74" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="25"/>
+      <c r="AG74" s="25"/>
+      <c r="AH74" s="25"/>
+      <c r="AI74" s="26"/>
       <c r="AJ74" s="17">
         <v>1</v>
       </c>
@@ -7764,11 +8281,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1">
+    <row r="75" spans="1:43" ht="15" customHeight="1">
       <c r="A75" s="18">
         <v>69</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="52" t="s">
         <v>204</v>
       </c>
       <c r="C75" s="19" t="s">
@@ -7789,25 +8306,25 @@
       <c r="X75" s="17">
         <v>0</v>
       </c>
-      <c r="Y75" s="23" t="s">
+      <c r="Y75" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="Z75" s="24"/>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="23" t="s">
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="25"/>
-      <c r="AE75" s="23" t="s">
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="26"/>
+      <c r="AE75" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="23" t="s">
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="AH75" s="24"/>
-      <c r="AI75" s="25"/>
+      <c r="AH75" s="25"/>
+      <c r="AI75" s="26"/>
       <c r="AJ75" s="17">
         <v>0</v>
       </c>
@@ -7815,11 +8332,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1">
+    <row r="76" spans="1:43" ht="15" customHeight="1">
       <c r="A76" s="18">
         <v>70</v>
       </c>
-      <c r="B76" s="48"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="19" t="s">
         <v>373</v>
       </c>
@@ -7838,25 +8355,25 @@
       <c r="X76" s="17">
         <v>1</v>
       </c>
-      <c r="Y76" s="23" t="s">
+      <c r="Y76" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="25"/>
-      <c r="AB76" s="23" t="s">
+      <c r="Z76" s="25"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="25"/>
-      <c r="AE76" s="23" t="s">
+      <c r="AC76" s="25"/>
+      <c r="AD76" s="26"/>
+      <c r="AE76" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="AF76" s="25"/>
-      <c r="AG76" s="23" t="s">
+      <c r="AF76" s="26"/>
+      <c r="AG76" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="AH76" s="24"/>
-      <c r="AI76" s="25"/>
+      <c r="AH76" s="25"/>
+      <c r="AI76" s="26"/>
       <c r="AJ76" s="17">
         <v>0</v>
       </c>
@@ -7864,11 +8381,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1">
+    <row r="77" spans="1:43" ht="15" customHeight="1">
       <c r="A77" s="18">
         <v>71</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="52" t="s">
         <v>231</v>
       </c>
       <c r="C77" s="19" t="s">
@@ -7889,25 +8406,25 @@
       <c r="X77" s="17">
         <v>0</v>
       </c>
-      <c r="Y77" s="23" t="s">
+      <c r="Y77" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="25"/>
-      <c r="AB77" s="23" t="s">
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="25"/>
-      <c r="AE77" s="23" t="s">
+      <c r="AC77" s="25"/>
+      <c r="AD77" s="26"/>
+      <c r="AE77" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="AF77" s="25"/>
-      <c r="AG77" s="23" t="s">
+      <c r="AF77" s="26"/>
+      <c r="AG77" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AH77" s="24"/>
-      <c r="AI77" s="25"/>
+      <c r="AH77" s="25"/>
+      <c r="AI77" s="26"/>
       <c r="AJ77" s="17">
         <v>0</v>
       </c>
@@ -7915,11 +8432,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1">
+    <row r="78" spans="1:43" ht="15" customHeight="1">
       <c r="A78" s="18">
         <v>72</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="19" t="s">
         <v>378</v>
       </c>
@@ -7938,34 +8455,40 @@
       <c r="X78" s="17">
         <v>1</v>
       </c>
-      <c r="Y78" s="23" t="s">
+      <c r="Y78" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="25"/>
-      <c r="AB78" s="23" t="s">
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="26"/>
+      <c r="AB78" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="25"/>
-      <c r="AE78" s="23" t="s">
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="26"/>
+      <c r="AE78" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="AF78" s="25"/>
-      <c r="AG78" s="23" t="s">
+      <c r="AF78" s="26"/>
+      <c r="AG78" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="25"/>
+      <c r="AH78" s="25"/>
+      <c r="AI78" s="26"/>
       <c r="AJ78" s="17">
         <v>0</v>
       </c>
       <c r="AK78" s="17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43">
+      <c r="C79" s="1">
+        <v>10200073</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="233">
+    <mergeCell ref="AO33:AQ33"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>
